--- a/data_processed/20250728/BTCUSDVOLSURFACE_REGULARIZED_20250728.xlsx
+++ b/data_processed/20250728/BTCUSDVOLSURFACE_REGULARIZED_20250728.xlsx
@@ -6252,7 +6252,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -33648,7 +33648,7 @@
       </c>
       <c r="G1319" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -34671,7 +34671,7 @@
       </c>
       <c r="G1358" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -35020,7 +35020,7 @@
       </c>
       <c r="G1371" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -35049,7 +35049,7 @@
       </c>
       <c r="G1372" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -35194,7 +35194,7 @@
       </c>
       <c r="G1377" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -35223,7 +35223,7 @@
       </c>
       <c r="G1378" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -37126,7 +37126,7 @@
       </c>
       <c r="G1449" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -37986,7 +37986,7 @@
       </c>
       <c r="G1481" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -39323,7 +39323,7 @@
       </c>
       <c r="G1530" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -42716,7 +42716,7 @@
       </c>
       <c r="G1663" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250728/BTCUSDVOLSURFACE_REGULARIZED_20250728.xlsx
+++ b/data_processed/20250728/BTCUSDVOLSURFACE_REGULARIZED_20250728.xlsx
@@ -6107,7 +6107,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6223,7 +6223,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6281,7 +6281,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6339,7 +6339,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6708,7 +6708,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -12769,7 +12769,7 @@
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -12798,7 +12798,7 @@
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -34339,7 +34339,7 @@
       </c>
       <c r="G1346" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -34455,7 +34455,7 @@
       </c>
       <c r="G1350" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -34671,7 +34671,7 @@
       </c>
       <c r="G1358" t="inlineStr">
         <is>
-          <t>CA,CS,BF</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -35020,7 +35020,7 @@
       </c>
       <c r="G1371" t="inlineStr">
         <is>
-          <t>CA,CS,BF</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -35194,7 +35194,7 @@
       </c>
       <c r="G1377" t="inlineStr">
         <is>
-          <t>CA,CS,BF</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -35397,7 +35397,7 @@
       </c>
       <c r="G1384" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36341,7 +36341,7 @@
       </c>
       <c r="G1420" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36478,7 +36478,7 @@
       </c>
       <c r="G1425" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -36536,7 +36536,7 @@
       </c>
       <c r="G1427" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -37358,7 +37358,7 @@
       </c>
       <c r="G1457" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37441,7 +37441,7 @@
       </c>
       <c r="G1460" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37470,7 +37470,7 @@
       </c>
       <c r="G1461" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37957,7 +37957,7 @@
       </c>
       <c r="G1480" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38044,7 +38044,7 @@
       </c>
       <c r="G1483" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38102,7 +38102,7 @@
       </c>
       <c r="G1485" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38189,7 +38189,7 @@
       </c>
       <c r="G1488" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38218,7 +38218,7 @@
       </c>
       <c r="G1489" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38276,7 +38276,7 @@
       </c>
       <c r="G1491" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38475,7 +38475,7 @@
       </c>
       <c r="G1498" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39062,7 +39062,7 @@
       </c>
       <c r="G1521" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39236,7 +39236,7 @@
       </c>
       <c r="G1527" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39294,7 +39294,7 @@
       </c>
       <c r="G1529" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39410,7 +39410,7 @@
       </c>
       <c r="G1533" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39580,7 +39580,7 @@
       </c>
       <c r="G1539" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -39609,7 +39609,7 @@
       </c>
       <c r="G1540" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -42600,7 +42600,7 @@
       </c>
       <c r="G1659" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -42687,7 +42687,7 @@
       </c>
       <c r="G1662" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -42774,7 +42774,7 @@
       </c>
       <c r="G1665" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -42803,7 +42803,7 @@
       </c>
       <c r="G1666" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -42944,7 +42944,7 @@
       </c>
       <c r="G1671" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -46039,7 +46039,7 @@
       </c>
       <c r="G1794" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46122,7 +46122,7 @@
       </c>
       <c r="G1797" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
